--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wxs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wxs\Documents\GitHub\CloudNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="11955" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="11955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="刘畅" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="45">
   <si>
     <t>第1周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,10 @@
       </rPr>
       <t xml:space="preserve">姓名：     周悦  </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建项目框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1679,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1745,7 +1749,9 @@
       <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2325,8 +2331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wxs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuchang\Documents\GitHub\CloudNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="11955" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="刘畅" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="46">
   <si>
     <t>第1周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,14 @@
       </rPr>
       <t xml:space="preserve">姓名：     周悦  </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论项目需求、功能，分工和确定需要使用的技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写注册界面和HOME界面的导航栏、富文本编辑器的前端实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1089,9 +1097,7 @@
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1099,7 +1105,9 @@
       <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1107,7 +1115,9 @@
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2325,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
